--- a/IBK/excel/INVOICE_result_0709_01.xlsx
+++ b/IBK/excel/INVOICE_result_0709_01.xlsx
@@ -389,12 +389,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>040152193000032_304018_20190221_3019022114141408.jpg</t>
+          <t>040152193000032_304018_20190221_3019022114141408 jpg</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>KYUNG-IN PRECISION MACHINERY CO.. LTD.</t>
+          <t>KYUNG-IN PRECISION MACHINERY CO   LTD</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -411,12 +411,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>040652192000096_304018_20190225_2019022513230509.jpg</t>
+          <t>040652192000096_304018_20190225_2019022513230509 jpg</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>E-WOO TRADING CO.. LTD.</t>
+          <t>E-WOO TRADING CO   LTD</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -429,7 +429,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>040952191000114_304018_20190228_201902281552430k.jpg</t>
+          <t>040952191000114_304018_20190228_201902281552430k jpg</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
@@ -440,14 +440,14 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>US$862.50</t>
+          <t>US$862 50</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>040952191000121_304018_20190220_201902201338051m.jpg</t>
+          <t>040952191000121_304018_20190220_201902201338051m jpg</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
@@ -465,7 +465,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>041252191000089_304018_20190228_2019022812552604.jpg</t>
+          <t>041252191000089_304018_20190228_2019022812552604 jpg</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
@@ -475,12 +475,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>041452191000089_304018_20190225_2019022512365701.1.jpg</t>
+          <t>041452191000089_304018_20190225_2019022512365701 1 jpg</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SAMKYUNG ALTEC CO.  LTD</t>
+          <t>SAMKYUNG ALTEC CO   LTD</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -493,12 +493,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>041452191000089_304018_20190225_2019022512365701.2.jpg</t>
+          <t>041452191000089_304018_20190225_2019022512365701 2 jpg</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SAMKYUNG ALTEC CO.  LTD</t>
+          <t>SAMKYUNG ALTEC CO   LTD</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
@@ -511,12 +511,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>041452191000089_304018_20190225_2019022512365701.3.jpg</t>
+          <t>041452191000089_304018_20190225_2019022512365701 3 jpg</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SAMKYUNG ALTEC CO.  LTD</t>
+          <t>SAMKYUNG ALTEC CO   LTD</t>
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
@@ -529,12 +529,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>041452191000089_304018_20190225_2019022512365701.4.jpg</t>
+          <t>041452191000089_304018_20190225_2019022512365701 4 jpg</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SAMKYUNG ALTEC CO.  LTD</t>
+          <t>SAMKYUNG ALTEC CO   LTD</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -547,12 +547,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>041452191000089_304018_20190225_2019022512365701.5.jpg</t>
+          <t>041452191000089_304018_20190225_2019022512365701 5 jpg</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SAMKYUNG ALTEC CO.  LTD</t>
+          <t>SAMKYUNG ALTEC CO   LTD</t>
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -565,12 +565,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>041452191000089_304018_20190225_2019022512365701.6.jpg</t>
+          <t>041452191000089_304018_20190225_2019022512365701 6 jpg</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SAMKYUNG ALTEC CO.  LTD</t>
+          <t>SAMKYUNG ALTEC CO   LTD</t>
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -583,7 +583,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>041652191000121_304018_20190304_2019030412403604.jpg</t>
+          <t>041652191000121_304018_20190304_2019030412403604 jpg</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
@@ -601,12 +601,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>041852192000057_304018_20190222_3019022210503103.1.jpg</t>
+          <t>041852192000057_304018_20190222_3019022210503103 1 jpg</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>KCE INC. (KOREA CRANE ENGINEERING)</t>
+          <t>KCE INC  (KOREA CRANE ENGINEERING)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -619,7 +619,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>041852193000040_304018_20190226_2019022612432106.jpg</t>
+          <t>041852193000040_304018_20190226_2019022612432106 jpg</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
@@ -637,26 +637,26 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>042052194000324_304018_20190222_3019022213042009.1.jpg</t>
+          <t>042052194000324_304018_20190222_3019022213042009 1 jpg</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>U$1 160.00</t>
+          <t>U$1 160 00</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>042052194000324_304018_20190222_3019022213042009.3.jpg</t>
+          <t>042052194000324_304018_20190222_3019022213042009 3 jpg</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BTSC CO.. LTD.</t>
+          <t>BTSC CO   LTD</t>
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
@@ -669,39 +669,39 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>042052194000324_304018_20190222_3019022213042009.4.jpg</t>
+          <t>042052194000324_304018_20190222_3019022213042009 4 jpg</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t>U$13 864.28</t>
+          <t>U$13 864 28</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>042052194000331_304018_20190222_201902221305320e.1.jpg</t>
+          <t>042052194000331_304018_20190222_201902221305320e 1 jpg</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BTSC CO  LTD.</t>
+          <t>BTSC CO  LTD</t>
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t>13 849.80</t>
+          <t>13 849 80</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>042052194000331_304018_20190222_201902221305320e.2.jpg</t>
+          <t>042052194000331_304018_20190222_201902221305320e 2 jpg</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
@@ -715,7 +715,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>042052194000331_304018_20190222_201902221305320e.3.jpg</t>
+          <t>042052194000331_304018_20190222_201902221305320e 3 jpg</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -726,14 +726,14 @@
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t>U$633.40</t>
+          <t>U$633 40</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>042052194000331_304018_20190222_201902221305320e.4.jpg</t>
+          <t>042052194000331_304018_20190222_201902221305320e 4 jpg</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
@@ -747,7 +747,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>042052194000331_304018_20190222_201902221305320e.6.jpg</t>
+          <t>042052194000331_304018_20190222_201902221305320e 6 jpg</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
@@ -761,35 +761,35 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>042052194000331_304018_20190222_201902221305320e.8.jpg</t>
+          <t>042052194000331_304018_20190222_201902221305320e 8 jpg</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>U$9 723.20</t>
+          <t>U$9 723 20</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>042052194000331_304018_20190222_201902221305320e.9.jpg</t>
+          <t>042052194000331_304018_20190222_201902221305320e 9 jpg</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>U$2 939.32</t>
+          <t>U$2 939 32</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>042052194000331_304018_20190222_201902221305320e.10.jpg</t>
+          <t>042052194000331_304018_20190222_201902221305320e 10 jpg</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
@@ -803,40 +803,40 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>042052194000331_304018_20190222_201902221305320e.11.jpg</t>
+          <t>042052194000331_304018_20190222_201902221305320e 11 jpg</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>U$256 20380.00</t>
+          <t>U$256 20380 00</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>042052194000331_304018_20190222_201902221305320e.12.jpg</t>
+          <t>042052194000331_304018_20190222_201902221305320e 12 jpg</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>U$311.74</t>
+          <t>U$311 74</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>042052194000331_304018_20190222_201902221305320e.13.jpg</t>
+          <t>042052194000331_304018_20190222_201902221305320e 13 jpg</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>BTSC CO  LTD.</t>
+          <t>BTSC CO  LTD</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -849,35 +849,35 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>042052194000331_304018_20190222_201902221305320e.14.jpg</t>
+          <t>042052194000331_304018_20190222_201902221305320e 14 jpg</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr">
         <is>
-          <t>U$1 468.93</t>
+          <t>U$1 468 93</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>042052194000331_304018_20190222_201902221305320e.15.jpg</t>
+          <t>042052194000331_304018_20190222_201902221305320e 15 jpg</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t>U$672.10</t>
+          <t>U$672 10</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>042052194000349_304018_20190222_2019022213033807.2.jpg</t>
+          <t>042052194000349_304018_20190222_2019022213033807 2 jpg</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
@@ -891,63 +891,63 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>042052194000349_304018_20190222_2019022213033807.3.jpg</t>
+          <t>042052194000349_304018_20190222_2019022213033807 3 jpg</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>US355.36</t>
+          <t>US355 36</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>042052194000349_304018_20190222_2019022213033807.4.jpg</t>
+          <t>042052194000349_304018_20190222_2019022213033807 4 jpg</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>U$1 915.42</t>
+          <t>U$1 915 42</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>042052194000349_304018_20190222_2019022213033807.5.jpg</t>
+          <t>042052194000349_304018_20190222_2019022213033807 5 jpg</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>US149.84</t>
+          <t>US149 84</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>042052194000349_304018_20190222_2019022213033807.7.jpg</t>
+          <t>042052194000349_304018_20190222_2019022213033807 7 jpg</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
-          <t>US4 307.92</t>
+          <t>US4 307 92</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>042052194000349_304018_20190222_2019022213033807.8.jpg</t>
+          <t>042052194000349_304018_20190222_2019022213033807 8 jpg</t>
         </is>
       </c>
       <c r="B37" t="inlineStr"/>
@@ -961,26 +961,26 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>042052194000349_304018_20190222_2019022213033807.10.jpg</t>
+          <t>042052194000349_304018_20190222_2019022213033807 10 jpg</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
-          <t>U$98.61</t>
+          <t>U$98 61</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>042052194000349_304018_20190222_2019022213033807.12.jpg</t>
+          <t>042052194000349_304018_20190222_2019022213033807 12 jpg</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>BTSC CO.  LTD NINGBO OFFICE</t>
+          <t>BTSC CO   LTD NINGBO OFFICE</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -993,7 +993,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>042052194000349_304018_20190222_2019022213033807.13.jpg</t>
+          <t>042052194000349_304018_20190222_2019022213033807 13 jpg</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
@@ -1007,49 +1007,49 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>042052194000349_304018_20190222_2019022213033807.14.jpg</t>
+          <t>042052194000349_304018_20190222_2019022213033807 14 jpg</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr">
         <is>
-          <t>U$2 785.17</t>
+          <t>U$2 785 17</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>042052194000356_304018_20190222_2019022213021508.2.jpg</t>
+          <t>042052194000356_304018_20190222_2019022213021508 2 jpg</t>
         </is>
       </c>
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr">
         <is>
-          <t>U$3 859.54</t>
+          <t>U$3 859 54</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>042052194000356_304018_20190222_2019022213021508.5.jpg</t>
+          <t>042052194000356_304018_20190222_2019022213021508 5 jpg</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr">
         <is>
-          <t>U$3 145.10</t>
+          <t>U$3 145 10</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>042052194000356_304018_20190222_2019022213021508.6.jpg</t>
+          <t>042052194000356_304018_20190222_2019022213021508 6 jpg</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
@@ -1063,44 +1063,44 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>042052194000356_304018_20190222_2019022213021508.7.jpg</t>
+          <t>042052194000356_304018_20190222_2019022213021508 7 jpg</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>BTSC CO  LTD.</t>
+          <t>BTSC CO  LTD</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr">
         <is>
-          <t>U$547.40</t>
+          <t>U$547 40</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>042052194000356_304018_20190222_2019022213021508.8.jpg</t>
+          <t>042052194000356_304018_20190222_2019022213021508 8 jpg</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr">
         <is>
-          <t>US563.52</t>
+          <t>US563 52</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>042252191000096_304018_20190220_3019022013412801.1.jpg</t>
+          <t>042252191000096_304018_20190220_3019022013412801 1 jpg</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>GIGAVIS CO. LTD.</t>
+          <t>GIGAVIS CO  LTD</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1117,12 +1117,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>042252191000096_304018_20190220_3019022013412801.2.jpg</t>
+          <t>042252191000096_304018_20190220_3019022013412801 2 jpg</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>GIGAVIS CO. LTD.</t>
+          <t>GIGAVIS CO  LTD</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1139,12 +1139,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>042252191000096_304018_20190220_3019022013412801.3.jpg</t>
+          <t>042252191000096_304018_20190220_3019022013412801 3 jpg</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>GIGAVIS CO.  LTD.</t>
+          <t>GIGAVIS CO   LTD</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1161,12 +1161,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>042252191000096_304018_20190220_3019022013412801.4.jpg</t>
+          <t>042252191000096_304018_20190220_3019022013412801 4 jpg</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>GIGAVIS CO. LTD.</t>
+          <t>GIGAVIS CO  LTD</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1183,18 +1183,18 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>042252192000107_304018_20190227_2019022716320802.jpg</t>
+          <t>042252192000107_304018_20190227_2019022716320802 jpg</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>SD BIOSENSOR  INC.</t>
+          <t>SD BIOSENSOR  INC</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr">
         <is>
-          <t>USD25 880.00</t>
+          <t>USD25 880 00</t>
         </is>
       </c>
     </row>
